--- a/biology/Médecine/Pneumopathies_interstitielles_diffuses/Pneumopathies_interstitielles_diffuses.xlsx
+++ b/biology/Médecine/Pneumopathies_interstitielles_diffuses/Pneumopathies_interstitielles_diffuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pneumopathies interstitielles diffuses (PID) désignent un groupe hétérogène d'affections du tissu pulmonaire pouvant évoluer vers une insuffisance respiratoire ou une fibrose pulmonaire, par atteinte de la structure alvéolaire.
 Elles peuvent être d'installation aiguë ou au contraire d'installation insidieuse, lente et progressive. La principale complication est la fibrose pulmonaire qui est définitive. Suivant son importance il s'ensuivra une insuffisance respiratoire plus ou moins sévère.
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les causes sont nombreuses :
 infections (tuberculose, virus, parasites, champignons) ;
@@ -524,18 +538,86 @@
 radiations ionisantes ;
 les médicaments ; les plus connus sont : l'amiodarone, le méthotrexate et autres cytotoxiques, certains antiandrogènes, la nitrofurantoïne ;
 pneumocystose à Pneumocystis jiroveci ;
-souvent les pneumopathies interstitielles sont de cause inconnue, la forme la plus fréquente en étant la fibrose pulmonaire idiopathique.
-Formes idiopathiques
-La pneumonie interstitielle idiopathique est le terme donné aux pneumopathies interstitielles de cause inconnue. Elles représentent la majorité des cas de maladies pulmonaires interstitielles (jusqu'à deux tiers des cas)[1]. Ils ont été sous-classés par l'American Thoracic Society en 2002 en 7 sous-groupes :
+souvent les pneumopathies interstitielles sont de cause inconnue, la forme la plus fréquente en étant la fibrose pulmonaire idiopathique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pneumopathies_interstitielles_diffuses</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumopathies_interstitielles_diffuses</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formes idiopathiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La pneumonie interstitielle idiopathique est le terme donné aux pneumopathies interstitielles de cause inconnue. Elles représentent la majorité des cas de maladies pulmonaires interstitielles (jusqu'à deux tiers des cas). Ils ont été sous-classés par l'American Thoracic Society en 2002 en 7 sous-groupes :
 fibrose pulmonaire idiopathique (IPF) : le sous-groupe le plus fréquent ;
 pneumonie interstitielle desquamative (DIP) ;
 pneumonie interstitielle aigüe (AIP), également connue sous le nom de syndrome de Hamman-Rich ;
 pneumonie interstitielle non spécifique (NSIP) ;
 maladie pulmonaire interstitielle associée à la bronchiolite respiratoire (RB-ILD) ;
 pneumonie organisatrice cryptogénique (COP), également connue sous le nom de Pneumonie organisatrice de bronchiolite oblitérante (BOOP) ;
-pneumonie interstitielle lymphoïde (LIP).
-Formes secondaires
-Les pneumopathies interstitielles secondaires sont les maladies dont l'étiologie est connue. Il s'agit notamment de :
+pneumonie interstitielle lymphoïde (LIP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pneumopathies_interstitielles_diffuses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumopathies_interstitielles_diffuses</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formes secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les pneumopathies interstitielles secondaires sont les maladies dont l'étiologie est connue. Il s'agit notamment de :
 Tissu conjonctif et maladies auto-immunes
 Sarcoïdose
 Polyarthrite rhumatoïde
@@ -557,7 +639,7 @@
 Médicaments chimiothérapeutiques
 Agents anti-arythmiques
 Infection
-Maladie à coronavirus 2019 (covid)[2]
+Maladie à coronavirus 2019 (covid)
 Pneumonie atypique
 Pneumocystose
 Tuberculose
